--- a/assets/files/Rekap_Pelaporan.xlsx
+++ b/assets/files/Rekap_Pelaporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D1A9E4-95AF-43DB-B400-00C11A1BEB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC2840A-2620-4CE7-8560-878BAC81BD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>CCS | REKAP PELAPORAN</t>
   </si>
@@ -58,7 +58,10 @@
     <t>STATUS CCS</t>
   </si>
   <si>
-    <t>22 Mei 2024</t>
+    <t>HANDLE BY</t>
+  </si>
+  <si>
+    <t>29 Mei 2024</t>
   </si>
   <si>
     <t>TIC00012024050001</t>
@@ -67,28 +70,34 @@
     <t>PT BPR BKK Banjarharjo(Perseroda)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Test 1&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Backdate,transaksi</t>
-  </si>
-  <si>
-    <t>Backdate - Backdate Transaksi</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>HANDLE</t>
-  </si>
-  <si>
-    <t>25 Mei 2024</t>
-  </si>
-  <si>
-    <t>TIC00012024050002</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Test 2&lt;/p&gt;</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>API - TTF</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>kritikal</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>TIC00042024050001</t>
+  </si>
+  <si>
+    <t>PT BPR BKK Purwokerto(Perseroda)</t>
+  </si>
+  <si>
+    <t>cobaa</t>
   </si>
   <si>
     <t>C6</t>
@@ -97,73 +106,10 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>ADDED</t>
-  </si>
-  <si>
-    <t>TIC00042024050001</t>
-  </si>
-  <si>
-    <t>PT BPR BKK Purwokerto (Perseroda)</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Test 3&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>current date,adendum</t>
-  </si>
-  <si>
-    <t>Pembatalan - Pembatalan Transaksi(Current Date, Backdate, Adendum Kredit dan Ecollector)</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>kritikal</t>
-  </si>
-  <si>
-    <t>TIC00042024050002</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Test 4&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>agunan</t>
-  </si>
-  <si>
-    <t>Kredit - Agunan</t>
-  </si>
-  <si>
-    <t>TIC00022024050001</t>
-  </si>
-  <si>
-    <t>PT BPR BKK Karangmalang (Perseroda)</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Test 5&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>kredit,data</t>
-  </si>
-  <si>
-    <t>Kredit - Data Kredit</t>
-  </si>
-  <si>
-    <t>TIC00012024050003</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Test 66&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Kredit,PPAP</t>
-  </si>
-  <si>
-    <t>Kredit - PPAP Kredit</t>
-  </si>
-  <si>
-    <t>FINISH</t>
-  </si>
-  <si>
-    <t>Rekap Pelaporan dicetak oleh Superadmin Pada Hari Senin, 27 Mei 2024 15:29:00</t>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Rekap Pelaporan dicetak oleh Superadmin Pada Har iKamis, 30 Mei 2024 11:37:26</t>
   </si>
 </sst>
 </file>
@@ -235,8 +181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -556,12 +506,12 @@
     <col min="5" max="5" width="50" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="83" customWidth="1"/>
-    <col min="8" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="8" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -571,9 +521,9 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -581,7 +531,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,207 +565,84 @@
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="3">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J5" s="3">
         <v>60</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>90</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>90</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="3">
-        <v>60</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
